--- a/medicine/Enfance/Xavier-Laurent_Petit/Xavier-Laurent_Petit.xlsx
+++ b/medicine/Enfance/Xavier-Laurent_Petit/Xavier-Laurent_Petit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier-Laurent Petit, né le 17 novembre 1956 à Paris, est un écrivain français, auteur de littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études secondaires au lycée Saint-Louis-de-Gonzague, Xavier-Laurent Petit suit des études de philosophie. Il devient par la suite instituteur, comme sa femme Marie, puis écrivain.
-Ses premières publications sont des romans de science fiction pour la jeunesse[1],[2].
+Ses premières publications sont des romans de science fiction pour la jeunesse,.
 Il a obtenu plusieurs prix, dont plusieurs prix Sorcières ou le prix Goya du premier roman (Découverte) en 1998 pour Le Monde d'en haut.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Crime des Marots, Critérion, 1994
@@ -552,13 +568,13 @@
 L’Année de la baleine, Littéra, 1995 Prix Prométhée 1996.
 Le Jour où maman a disparu, 1995
 Colorbelle-ébène, L'École des loisirs ; Mouche, 1996 Prix Sorcières 1996.
-L'Oasis, L'École des loisirs ; Médium, 1997 Prix du roman historique jeunesse 1998.Prix Tatoulu 1998[2].
+L'Oasis, L'École des loisirs ; Médium, 1997 Prix du roman historique jeunesse 1998.Prix Tatoulu 1998.
 Le Monde d'en haut, Casterman ; 10 &amp; plus, 1998 Prix Goya du premier roman Découverte 1998.
 Lit de fer, 1998
 Piège dans les Rocheuses, Flammarion ; Castor Poche, 1999
-Fils de guerre, L’École des loisirs ; Médium, 1999 Prix de l'Assemblée nationale 2000.Prix du roman historique jeunesse 2001[1].
-L'Autre Côté du mur, Bordas ; Grindelire[3], 2000
-Belle Neigeuse, Bordas ; Grindelire[3], 2000
+Fils de guerre, L’École des loisirs ; Médium, 1999 Prix de l'Assemblée nationale 2000.Prix du roman historique jeunesse 2001.
+L'Autre Côté du mur, Bordas ; Grindelire, 2000
+Belle Neigeuse, Bordas ; Grindelire, 2000
 L'Homme du jardin, L’École des loisirs ; Médium, 2001 Prix du roman policier jeunesse 2001.Prix Ado 2003.
 Paroles de citoyens, coédition DRAC Pas-de-Calais et ville de Méricourt, 2001
 Miée, L’École des loisirs ; Médium, 2002
@@ -575,10 +591,10 @@
 Mon petit cœur imbécile, L’École des loisirs ; Neuf, 2009 Prix Amerigo-Vespucci Jeunesse 2010.Prix Marguerite-Audoux des collèges 2011.
 Itawapa, L'École des loisirs, 2013
 Un monde sauvage, L'École des loisirs, 2015 Prix du roman contemporain 2016.
-Le Fils de l'Ursari[4], École des Loisirs, 2016 Prix Sorcières 2017[5].Grand prix SGDL du livre Jeunesse 2017[6].
-Adapté en bande dessinée[7] (scénario et dessin) par Cyrille Pomès d'après le roman[4] ; mise en couleurs de Isabelle Merlet, Rue de Sèvres, 2019.
-Les Loups du clair de lune, illustrations de Amandine Delaunay, L'École des loisirs, 2019 Prix Libbylit (Belgique) 2019[8] délivré par l'IBBY, catégorie Roman junior.
-Alain l'alien, Montpellier, Benjamins media, 2019 Coup de cœur Jeune Public printemps 2019 de l'académie Charles-Cros[9].
+Le Fils de l'Ursari, École des Loisirs, 2016 Prix Sorcières 2017.Grand prix SGDL du livre Jeunesse 2017.
+Adapté en bande dessinée (scénario et dessin) par Cyrille Pomès d'après le roman ; mise en couleurs de Isabelle Merlet, Rue de Sèvres, 2019.
+Les Loups du clair de lune, illustrations de Amandine Delaunay, L'École des loisirs, 2019 Prix Libbylit (Belgique) 2019 délivré par l'IBBY, catégorie Roman junior.
+Alain l'alien, Montpellier, Benjamins media, 2019 Coup de cœur Jeune Public printemps 2019 de l'académie Charles-Cros.
 Mission Mammouth, L'École des loisirs, 2020
 </t>
         </is>
